--- a/Dossier à rendre/emploi du temps paul berthelot.xlsx
+++ b/Dossier à rendre/emploi du temps paul berthelot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier à rendre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E888B-01F1-41EF-ABF7-CFD0C877961C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7A874-1439-45F8-9F59-8F0D7C63D832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC17C5-0787-4D4B-BFFA-7BC133D746E8}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
